--- a/Code/Results/Cases/Case_5_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_112/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9982037060396228</v>
+        <v>1.026941710569776</v>
       </c>
       <c r="D2">
-        <v>1.015755146677212</v>
+        <v>1.031819275381261</v>
       </c>
       <c r="E2">
-        <v>1.004880811748847</v>
+        <v>1.027099454915871</v>
       </c>
       <c r="F2">
-        <v>0.9749632835647078</v>
+        <v>1.025466810597581</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039685680725233</v>
+        <v>1.033262555753757</v>
       </c>
       <c r="J2">
-        <v>1.020438277014818</v>
+        <v>1.032102346633824</v>
       </c>
       <c r="K2">
-        <v>1.026999265623982</v>
+        <v>1.034626292176537</v>
       </c>
       <c r="L2">
-        <v>1.01627256534908</v>
+        <v>1.029920171200744</v>
       </c>
       <c r="M2">
-        <v>0.986782802056114</v>
+        <v>1.028292297631711</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00260850629034</v>
+        <v>1.027851296594316</v>
       </c>
       <c r="D3">
-        <v>1.018976323909534</v>
+        <v>1.032502739018733</v>
       </c>
       <c r="E3">
-        <v>1.008386845594202</v>
+        <v>1.027870803901045</v>
       </c>
       <c r="F3">
-        <v>0.9820497941096271</v>
+        <v>1.027010032195512</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040937921889681</v>
+        <v>1.033467927207493</v>
       </c>
       <c r="J3">
-        <v>1.023028312504338</v>
+        <v>1.032652111951126</v>
       </c>
       <c r="K3">
-        <v>1.029372022824296</v>
+        <v>1.035118734488251</v>
       </c>
       <c r="L3">
-        <v>1.018913528173775</v>
+        <v>1.030499272198093</v>
       </c>
       <c r="M3">
-        <v>0.9929176229051924</v>
+        <v>1.029640831784896</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005396293634894</v>
+        <v>1.0284399425353</v>
       </c>
       <c r="D4">
-        <v>1.021017357429755</v>
+        <v>1.032945006340044</v>
       </c>
       <c r="E4">
-        <v>1.010611522976173</v>
+        <v>1.028370367702346</v>
       </c>
       <c r="F4">
-        <v>0.9865216846620385</v>
+        <v>1.028008677709983</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041720837807582</v>
+        <v>1.033599659272663</v>
       </c>
       <c r="J4">
-        <v>1.024662961753644</v>
+        <v>1.033007315989617</v>
       </c>
       <c r="K4">
-        <v>1.030868570204725</v>
+        <v>1.035436721433211</v>
       </c>
       <c r="L4">
-        <v>1.020583541344078</v>
+        <v>1.030873781325145</v>
       </c>
       <c r="M4">
-        <v>0.996785549925519</v>
+        <v>1.030513021057768</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006553912299199</v>
+        <v>1.028687428965312</v>
       </c>
       <c r="D5">
-        <v>1.021865408757981</v>
+        <v>1.033130939751491</v>
       </c>
       <c r="E5">
-        <v>1.011536646146906</v>
+        <v>1.028580491256475</v>
       </c>
       <c r="F5">
-        <v>0.9883758651453131</v>
+        <v>1.028428531665195</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042043604114352</v>
+        <v>1.033654762261839</v>
       </c>
       <c r="J5">
-        <v>1.025340633680885</v>
+        <v>1.033156516508562</v>
       </c>
       <c r="K5">
-        <v>1.031488740780922</v>
+        <v>1.035570245727098</v>
       </c>
       <c r="L5">
-        <v>1.021276640381862</v>
+        <v>1.031031174835246</v>
       </c>
       <c r="M5">
-        <v>0.9983884581761761</v>
+        <v>1.030879597063609</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006747455152927</v>
+        <v>1.028728984174363</v>
       </c>
       <c r="D6">
-        <v>1.022007224110687</v>
+        <v>1.033162159016621</v>
       </c>
       <c r="E6">
-        <v>1.011691395305374</v>
+        <v>1.028615778177016</v>
       </c>
       <c r="F6">
-        <v>0.9886857155412926</v>
+        <v>1.028499028499897</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042097429403853</v>
+        <v>1.033663998037413</v>
       </c>
       <c r="J6">
-        <v>1.025453868362523</v>
+        <v>1.033181560464866</v>
       </c>
       <c r="K6">
-        <v>1.031592352266079</v>
+        <v>1.035592655802824</v>
       </c>
       <c r="L6">
-        <v>1.021392497721551</v>
+        <v>1.031057598948595</v>
       </c>
       <c r="M6">
-        <v>0.9986562677485397</v>
+        <v>1.030941141487732</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005411817508926</v>
+        <v>1.028443249384007</v>
       </c>
       <c r="D7">
-        <v>1.021028727957546</v>
+        <v>1.032947490775675</v>
       </c>
       <c r="E7">
-        <v>1.010623923821865</v>
+        <v>1.028373174964232</v>
       </c>
       <c r="F7">
-        <v>0.9865465599410749</v>
+        <v>1.028014287721331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041725175431601</v>
+        <v>1.033600396650823</v>
       </c>
       <c r="J7">
-        <v>1.024672053859397</v>
+        <v>1.033009310114507</v>
       </c>
       <c r="K7">
-        <v>1.030876891838</v>
+        <v>1.035438506210329</v>
       </c>
       <c r="L7">
-        <v>1.020592837408157</v>
+        <v>1.030875884622336</v>
       </c>
       <c r="M7">
-        <v>0.9968070575975012</v>
+        <v>1.030517919622258</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.999705608888965</v>
+        <v>1.027249092137705</v>
       </c>
       <c r="D8">
-        <v>1.016852946246151</v>
+        <v>1.032050250415554</v>
       </c>
       <c r="E8">
-        <v>1.006075038866705</v>
+        <v>1.027360042462999</v>
       </c>
       <c r="F8">
-        <v>0.9773825802384152</v>
+        <v>1.025988336264216</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040114660423272</v>
+        <v>1.033332201452239</v>
       </c>
       <c r="J8">
-        <v>1.021322354254033</v>
+        <v>1.03228825222211</v>
       </c>
       <c r="K8">
-        <v>1.027809371884146</v>
+        <v>1.034792851025071</v>
       </c>
       <c r="L8">
-        <v>1.017173343931004</v>
+        <v>1.030115923943467</v>
       </c>
       <c r="M8">
-        <v>0.9888778923563949</v>
+        <v>1.028748126807683</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9891448404677369</v>
+        <v>1.025145477444585</v>
       </c>
       <c r="D9">
-        <v>1.009145691099103</v>
+        <v>1.030469387394885</v>
       </c>
       <c r="E9">
-        <v>0.9977036989791049</v>
+        <v>1.025578244392315</v>
       </c>
       <c r="F9">
-        <v>0.9602969956239554</v>
+        <v>1.02241873670177</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037058393369505</v>
+        <v>1.032850753914902</v>
       </c>
       <c r="J9">
-        <v>1.015086833019003</v>
+        <v>1.031013596911444</v>
       </c>
       <c r="K9">
-        <v>1.022092108300859</v>
+        <v>1.03365011292574</v>
       </c>
       <c r="L9">
-        <v>1.01083414225602</v>
+        <v>1.028775198331817</v>
       </c>
       <c r="M9">
-        <v>0.9740688382367609</v>
+        <v>1.025626264256628</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9817224194732757</v>
+        <v>1.023743507290554</v>
       </c>
       <c r="D10">
-        <v>1.003746396706944</v>
+        <v>1.029415645914166</v>
       </c>
       <c r="E10">
-        <v>0.9918550610962587</v>
+        <v>1.024392749465418</v>
       </c>
       <c r="F10">
-        <v>0.9481715947281809</v>
+        <v>1.020038966569256</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034860814637796</v>
+        <v>1.032523846072668</v>
       </c>
       <c r="J10">
-        <v>1.010680457909583</v>
+        <v>1.030161104586122</v>
       </c>
       <c r="K10">
-        <v>1.018048336666792</v>
+        <v>1.032884935747183</v>
       </c>
       <c r="L10">
-        <v>1.006372948801799</v>
+        <v>1.02788033852597</v>
       </c>
       <c r="M10">
-        <v>0.9635442277533793</v>
+        <v>1.023542578400687</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9784074456330915</v>
+        <v>1.023136543639724</v>
       </c>
       <c r="D11">
-        <v>1.001339932494456</v>
+        <v>1.028959411754222</v>
       </c>
       <c r="E11">
-        <v>0.9892519240377284</v>
+        <v>1.023879986478674</v>
       </c>
       <c r="F11">
-        <v>0.9427200846861675</v>
+        <v>1.01900842471415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033867959037907</v>
+        <v>1.032380883515426</v>
       </c>
       <c r="J11">
-        <v>1.008706930506219</v>
+        <v>1.029791321157447</v>
       </c>
       <c r="K11">
-        <v>1.016236623813581</v>
+        <v>1.032552813695864</v>
       </c>
       <c r="L11">
-        <v>1.004379420228103</v>
+        <v>1.027492610245735</v>
       </c>
       <c r="M11">
-        <v>0.9588095759422116</v>
+        <v>1.022639683371035</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9771599613068352</v>
+        <v>1.022911105082051</v>
       </c>
       <c r="D12">
-        <v>1.000435148810171</v>
+        <v>1.028789953083317</v>
       </c>
       <c r="E12">
-        <v>0.9882737214770693</v>
+        <v>1.023689608743582</v>
       </c>
       <c r="F12">
-        <v>0.9406623536817919</v>
+        <v>1.018625616935724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033492651448279</v>
+        <v>1.032327569209608</v>
       </c>
       <c r="J12">
-        <v>1.007963425145168</v>
+        <v>1.029653869660597</v>
       </c>
       <c r="K12">
-        <v>1.015554016801449</v>
+        <v>1.032429329474591</v>
       </c>
       <c r="L12">
-        <v>1.003629080317589</v>
+        <v>1.027348553616519</v>
       </c>
       <c r="M12">
-        <v>0.9570220675844163</v>
+        <v>1.022304206083051</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9774282986861927</v>
+        <v>1.022959461750657</v>
       </c>
       <c r="D13">
-        <v>1.000629732502734</v>
+        <v>1.028826302217151</v>
       </c>
       <c r="E13">
-        <v>0.9884840711672176</v>
+        <v>1.02373044154724</v>
       </c>
       <c r="F13">
-        <v>0.9411052727132923</v>
+        <v>1.018707731440495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033573456458056</v>
+        <v>1.032339014885282</v>
       </c>
       <c r="J13">
-        <v>1.008123392738725</v>
+        <v>1.029683357884179</v>
       </c>
       <c r="K13">
-        <v>1.015700884371353</v>
+        <v>1.032455822655152</v>
       </c>
       <c r="L13">
-        <v>1.003790486447074</v>
+        <v>1.027379455927575</v>
       </c>
       <c r="M13">
-        <v>0.9574068374710197</v>
+        <v>1.022376171789295</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9783046637295911</v>
+        <v>1.023117908517319</v>
       </c>
       <c r="D14">
-        <v>1.001265369250736</v>
+        <v>1.028945404101343</v>
       </c>
       <c r="E14">
-        <v>0.9891712997320571</v>
+        <v>1.023864248053298</v>
       </c>
       <c r="F14">
-        <v>0.9425506770032192</v>
+        <v>1.018976782117668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03383707085413</v>
+        <v>1.032376480855313</v>
       </c>
       <c r="J14">
-        <v>1.008645688976343</v>
+        <v>1.029779961362254</v>
       </c>
       <c r="K14">
-        <v>1.016180399540096</v>
+        <v>1.032542608884354</v>
       </c>
       <c r="L14">
-        <v>1.0043176014105</v>
+        <v>1.027480703235221</v>
       </c>
       <c r="M14">
-        <v>0.9586624219669256</v>
+        <v>1.022611954820461</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9788424496302147</v>
+        <v>1.023215534754688</v>
       </c>
       <c r="D15">
-        <v>1.001655540116873</v>
+        <v>1.029018787648911</v>
       </c>
       <c r="E15">
-        <v>0.9895932079851121</v>
+        <v>1.023946701972058</v>
       </c>
       <c r="F15">
-        <v>0.9434368102560117</v>
+        <v>1.019142550475455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033998618966333</v>
+        <v>1.032399536833285</v>
       </c>
       <c r="J15">
-        <v>1.008966089271827</v>
+        <v>1.029839469037496</v>
       </c>
       <c r="K15">
-        <v>1.016474548374803</v>
+        <v>1.032596064940849</v>
       </c>
       <c r="L15">
-        <v>1.004641050567973</v>
+        <v>1.027543080134836</v>
       </c>
       <c r="M15">
-        <v>0.9594321367360391</v>
+        <v>1.02275721488114</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9819402134930518</v>
+        <v>1.023783791543231</v>
       </c>
       <c r="D16">
-        <v>1.003904610276029</v>
+        <v>1.029445925624629</v>
       </c>
       <c r="E16">
-        <v>0.9920262787158176</v>
+        <v>1.024426791785848</v>
       </c>
       <c r="F16">
-        <v>0.9485289421315566</v>
+        <v>1.020107357940374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034925811168739</v>
+        <v>1.032533304341645</v>
       </c>
       <c r="J16">
-        <v>1.010810003416093</v>
+        <v>1.030185632227179</v>
       </c>
       <c r="K16">
-        <v>1.018167250233122</v>
+        <v>1.032906960853551</v>
       </c>
       <c r="L16">
-        <v>1.00650390319705</v>
+        <v>1.02790606556446</v>
       </c>
       <c r="M16">
-        <v>0.9638545311728051</v>
+        <v>1.023602486554544</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9838556498295331</v>
+        <v>1.024140270392747</v>
       </c>
       <c r="D17">
-        <v>1.005296623990527</v>
+        <v>1.029713869871128</v>
       </c>
       <c r="E17">
-        <v>0.9935331140033538</v>
+        <v>1.02472809084307</v>
       </c>
       <c r="F17">
-        <v>0.9516675196503118</v>
+        <v>1.020712529163461</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035496147601461</v>
+        <v>1.03261683591544</v>
       </c>
       <c r="J17">
-        <v>1.011948687327959</v>
+        <v>1.030402597583721</v>
       </c>
       <c r="K17">
-        <v>1.019212417205912</v>
+        <v>1.033101764853489</v>
       </c>
       <c r="L17">
-        <v>1.007655489286348</v>
+        <v>1.02813369045166</v>
       </c>
       <c r="M17">
-        <v>0.9665796066068343</v>
+        <v>1.024132526908258</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9849632153744319</v>
+        <v>1.024348207999564</v>
       </c>
       <c r="D18">
-        <v>1.006101994148273</v>
+        <v>1.029870161313785</v>
       </c>
       <c r="E18">
-        <v>0.994405258193225</v>
+        <v>1.024903887882821</v>
       </c>
       <c r="F18">
-        <v>0.95347898121966</v>
+        <v>1.02106550742036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03582485401787</v>
+        <v>1.032665422486093</v>
       </c>
       <c r="J18">
-        <v>1.012606582542338</v>
+        <v>1.030529087223868</v>
       </c>
       <c r="K18">
-        <v>1.019816223983708</v>
+        <v>1.033215313985754</v>
       </c>
       <c r="L18">
-        <v>1.008321268077473</v>
+        <v>1.028266436248843</v>
       </c>
       <c r="M18">
-        <v>0.9681521381021867</v>
+        <v>1.024441628547573</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9853392536899522</v>
+        <v>1.024419110967212</v>
       </c>
       <c r="D19">
-        <v>1.006375508439855</v>
+        <v>1.029923453334217</v>
       </c>
       <c r="E19">
-        <v>0.9947015083153331</v>
+        <v>1.02496383934137</v>
       </c>
       <c r="F19">
-        <v>0.9540934569295414</v>
+        <v>1.021185862723212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035936271578428</v>
+        <v>1.03268196618339</v>
       </c>
       <c r="J19">
-        <v>1.012829860041566</v>
+        <v>1.030572206307935</v>
       </c>
       <c r="K19">
-        <v>1.020021134428391</v>
+        <v>1.033254018282684</v>
       </c>
       <c r="L19">
-        <v>1.008547293433334</v>
+        <v>1.028311695067336</v>
       </c>
       <c r="M19">
-        <v>0.9686855168957018</v>
+        <v>1.024547013863559</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9836511492745061</v>
+        <v>1.024102022600946</v>
       </c>
       <c r="D20">
-        <v>1.005147957739191</v>
+        <v>1.0296851215613</v>
       </c>
       <c r="E20">
-        <v>0.9933721494594858</v>
+        <v>1.024695758675335</v>
       </c>
       <c r="F20">
-        <v>0.9513327854870616</v>
+        <v>1.02064760087455</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035435367796059</v>
+        <v>1.032607887832814</v>
       </c>
       <c r="J20">
-        <v>1.011827171053242</v>
+        <v>1.030379325727438</v>
       </c>
       <c r="K20">
-        <v>1.019100886505572</v>
+        <v>1.03308087216463</v>
       </c>
       <c r="L20">
-        <v>1.007532551475423</v>
+        <v>1.028109270931128</v>
       </c>
       <c r="M20">
-        <v>0.9662890010180263</v>
+        <v>1.024075665035429</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9780470503421268</v>
+        <v>1.023071249486551</v>
       </c>
       <c r="D21">
-        <v>1.001078496654736</v>
+        <v>1.02891033136692</v>
       </c>
       <c r="E21">
-        <v>0.9889692451510864</v>
+        <v>1.023824843014373</v>
       </c>
       <c r="F21">
-        <v>0.9421259690054128</v>
+        <v>1.018897553960424</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033759625547043</v>
+        <v>1.032365453902756</v>
       </c>
       <c r="J21">
-        <v>1.008492179338017</v>
+        <v>1.029751516736468</v>
       </c>
       <c r="K21">
-        <v>1.016039465353614</v>
+        <v>1.032517055794896</v>
       </c>
       <c r="L21">
-        <v>1.004162656068937</v>
+        <v>1.027450889448804</v>
       </c>
       <c r="M21">
-        <v>0.9582934987884222</v>
+        <v>1.022542525446318</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9744295089939777</v>
+        <v>1.022423246926217</v>
       </c>
       <c r="D22">
-        <v>0.9984563607660316</v>
+        <v>1.028423230855556</v>
       </c>
       <c r="E22">
-        <v>0.9861353158816837</v>
+        <v>1.023277757360961</v>
       </c>
       <c r="F22">
-        <v>0.936146024523421</v>
+        <v>1.017797119237759</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03266813805636</v>
+        <v>1.032211801588057</v>
       </c>
       <c r="J22">
-        <v>1.006334538677671</v>
+        <v>1.029356224380942</v>
       </c>
       <c r="K22">
-        <v>1.01405845960011</v>
+        <v>1.032161871896425</v>
       </c>
       <c r="L22">
-        <v>1.001986530971138</v>
+        <v>1.027036724422622</v>
       </c>
       <c r="M22">
-        <v>0.9530982345211404</v>
+        <v>1.021577987883888</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9763564989114019</v>
+        <v>1.022766757268667</v>
       </c>
       <c r="D23">
-        <v>0.9998526459689424</v>
+        <v>1.028681447993198</v>
       </c>
       <c r="E23">
-        <v>0.9876440977717652</v>
+        <v>1.023567730860868</v>
       </c>
       <c r="F23">
-        <v>0.9393351744046283</v>
+        <v>1.018380492939019</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033250459608591</v>
+        <v>1.032293371625675</v>
       </c>
       <c r="J23">
-        <v>1.007484324624841</v>
+        <v>1.029565829798656</v>
       </c>
       <c r="K23">
-        <v>1.015114143343439</v>
+        <v>1.032350226962886</v>
       </c>
       <c r="L23">
-        <v>1.003145775512911</v>
+        <v>1.027256301405668</v>
       </c>
       <c r="M23">
-        <v>0.9558690807381234</v>
+        <v>1.022089365244868</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.983743584102807</v>
+        <v>1.024119305102129</v>
       </c>
       <c r="D24">
-        <v>1.005215153870478</v>
+        <v>1.029698111672382</v>
       </c>
       <c r="E24">
-        <v>0.9934449032725319</v>
+        <v>1.024710368022109</v>
       </c>
       <c r="F24">
-        <v>0.9514840966441526</v>
+        <v>1.020676939196494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035462843792035</v>
+        <v>1.032611931506309</v>
       </c>
       <c r="J24">
-        <v>1.011882098389514</v>
+        <v>1.030389841470825</v>
       </c>
       <c r="K24">
-        <v>1.019151300379258</v>
+        <v>1.033090312908472</v>
       </c>
       <c r="L24">
-        <v>1.00758812003909</v>
+        <v>1.028120305135259</v>
       </c>
       <c r="M24">
-        <v>0.9664203654205137</v>
+        <v>1.024101358658349</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9919390903298498</v>
+        <v>1.025689235302129</v>
       </c>
       <c r="D25">
-        <v>1.011182155899945</v>
+        <v>1.030878051815847</v>
       </c>
       <c r="E25">
-        <v>0.9999128441537712</v>
+        <v>1.026038466769391</v>
       </c>
       <c r="F25">
-        <v>0.9648352802787551</v>
+        <v>1.023341548515344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037875684072098</v>
+        <v>1.032976267809461</v>
       </c>
       <c r="J25">
-        <v>1.016740815213621</v>
+        <v>1.031343606153812</v>
       </c>
       <c r="K25">
-        <v>1.023609328370043</v>
+        <v>1.033946130151284</v>
       </c>
       <c r="L25">
-        <v>1.01251251325515</v>
+        <v>1.029121993134438</v>
       </c>
       <c r="M25">
-        <v>0.9780051682212861</v>
+        <v>1.02643375289706</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_112/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026941710569776</v>
+        <v>0.9982037060396234</v>
       </c>
       <c r="D2">
-        <v>1.031819275381261</v>
+        <v>1.015755146677212</v>
       </c>
       <c r="E2">
-        <v>1.027099454915871</v>
+        <v>1.004880811748847</v>
       </c>
       <c r="F2">
-        <v>1.025466810597581</v>
+        <v>0.9749632835647082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033262555753757</v>
+        <v>1.039685680725233</v>
       </c>
       <c r="J2">
-        <v>1.032102346633824</v>
+        <v>1.020438277014819</v>
       </c>
       <c r="K2">
-        <v>1.034626292176537</v>
+        <v>1.026999265623983</v>
       </c>
       <c r="L2">
-        <v>1.029920171200744</v>
+        <v>1.016272565349081</v>
       </c>
       <c r="M2">
-        <v>1.028292297631711</v>
+        <v>0.9867828020561145</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027851296594316</v>
+        <v>1.00260850629034</v>
       </c>
       <c r="D3">
-        <v>1.032502739018733</v>
+        <v>1.018976323909534</v>
       </c>
       <c r="E3">
-        <v>1.027870803901045</v>
+        <v>1.008386845594202</v>
       </c>
       <c r="F3">
-        <v>1.027010032195512</v>
+        <v>0.9820497941096267</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033467927207493</v>
+        <v>1.040937921889681</v>
       </c>
       <c r="J3">
-        <v>1.032652111951126</v>
+        <v>1.023028312504338</v>
       </c>
       <c r="K3">
-        <v>1.035118734488251</v>
+        <v>1.029372022824296</v>
       </c>
       <c r="L3">
-        <v>1.030499272198093</v>
+        <v>1.018913528173775</v>
       </c>
       <c r="M3">
-        <v>1.029640831784896</v>
+        <v>0.9929176229051919</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0284399425353</v>
+        <v>1.005396293634893</v>
       </c>
       <c r="D4">
-        <v>1.032945006340044</v>
+        <v>1.021017357429754</v>
       </c>
       <c r="E4">
-        <v>1.028370367702346</v>
+        <v>1.010611522976173</v>
       </c>
       <c r="F4">
-        <v>1.028008677709983</v>
+        <v>0.9865216846620374</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033599659272663</v>
+        <v>1.041720837807582</v>
       </c>
       <c r="J4">
-        <v>1.033007315989617</v>
+        <v>1.024662961753643</v>
       </c>
       <c r="K4">
-        <v>1.035436721433211</v>
+        <v>1.030868570204723</v>
       </c>
       <c r="L4">
-        <v>1.030873781325145</v>
+        <v>1.020583541344077</v>
       </c>
       <c r="M4">
-        <v>1.030513021057768</v>
+        <v>0.9967855499255178</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028687428965312</v>
+        <v>1.006553912299198</v>
       </c>
       <c r="D5">
-        <v>1.033130939751491</v>
+        <v>1.021865408757981</v>
       </c>
       <c r="E5">
-        <v>1.028580491256475</v>
+        <v>1.011536646146906</v>
       </c>
       <c r="F5">
-        <v>1.028428531665195</v>
+        <v>0.9883758651453131</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033654762261839</v>
+        <v>1.042043604114352</v>
       </c>
       <c r="J5">
-        <v>1.033156516508562</v>
+        <v>1.025340633680884</v>
       </c>
       <c r="K5">
-        <v>1.035570245727098</v>
+        <v>1.031488740780922</v>
       </c>
       <c r="L5">
-        <v>1.031031174835246</v>
+        <v>1.021276640381862</v>
       </c>
       <c r="M5">
-        <v>1.030879597063609</v>
+        <v>0.9983884581761761</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028728984174363</v>
+        <v>1.006747455152927</v>
       </c>
       <c r="D6">
-        <v>1.033162159016621</v>
+        <v>1.022007224110687</v>
       </c>
       <c r="E6">
-        <v>1.028615778177016</v>
+        <v>1.011691395305373</v>
       </c>
       <c r="F6">
-        <v>1.028499028499897</v>
+        <v>0.9886857155412926</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033663998037413</v>
+        <v>1.042097429403853</v>
       </c>
       <c r="J6">
-        <v>1.033181560464866</v>
+        <v>1.025453868362523</v>
       </c>
       <c r="K6">
-        <v>1.035592655802824</v>
+        <v>1.031592352266079</v>
       </c>
       <c r="L6">
-        <v>1.031057598948595</v>
+        <v>1.02139249772155</v>
       </c>
       <c r="M6">
-        <v>1.030941141487732</v>
+        <v>0.9986562677485397</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028443249384007</v>
+        <v>1.005411817508925</v>
       </c>
       <c r="D7">
-        <v>1.032947490775675</v>
+        <v>1.021028727957545</v>
       </c>
       <c r="E7">
-        <v>1.028373174964232</v>
+        <v>1.010623923821864</v>
       </c>
       <c r="F7">
-        <v>1.028014287721331</v>
+        <v>0.9865465599410738</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033600396650823</v>
+        <v>1.041725175431601</v>
       </c>
       <c r="J7">
-        <v>1.033009310114507</v>
+        <v>1.024672053859397</v>
       </c>
       <c r="K7">
-        <v>1.035438506210329</v>
+        <v>1.030876891838</v>
       </c>
       <c r="L7">
-        <v>1.030875884622336</v>
+        <v>1.020592837408155</v>
       </c>
       <c r="M7">
-        <v>1.030517919622258</v>
+        <v>0.9968070575975001</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027249092137705</v>
+        <v>0.9997056088889635</v>
       </c>
       <c r="D8">
-        <v>1.032050250415554</v>
+        <v>1.016852946246149</v>
       </c>
       <c r="E8">
-        <v>1.027360042462999</v>
+        <v>1.006075038866704</v>
       </c>
       <c r="F8">
-        <v>1.025988336264216</v>
+        <v>0.9773825802384132</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033332201452239</v>
+        <v>1.040114660423271</v>
       </c>
       <c r="J8">
-        <v>1.03228825222211</v>
+        <v>1.021322354254031</v>
       </c>
       <c r="K8">
-        <v>1.034792851025071</v>
+        <v>1.027809371884144</v>
       </c>
       <c r="L8">
-        <v>1.030115923943467</v>
+        <v>1.017173343931003</v>
       </c>
       <c r="M8">
-        <v>1.028748126807683</v>
+        <v>0.9888778923563931</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025145477444585</v>
+        <v>0.9891448404677361</v>
       </c>
       <c r="D9">
-        <v>1.030469387394885</v>
+        <v>1.009145691099102</v>
       </c>
       <c r="E9">
-        <v>1.025578244392315</v>
+        <v>0.9977036989791045</v>
       </c>
       <c r="F9">
-        <v>1.02241873670177</v>
+        <v>0.9602969956239542</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032850753914902</v>
+        <v>1.037058393369504</v>
       </c>
       <c r="J9">
-        <v>1.031013596911444</v>
+        <v>1.015086833019002</v>
       </c>
       <c r="K9">
-        <v>1.03365011292574</v>
+        <v>1.022092108300859</v>
       </c>
       <c r="L9">
-        <v>1.028775198331817</v>
+        <v>1.010834142256019</v>
       </c>
       <c r="M9">
-        <v>1.025626264256628</v>
+        <v>0.9740688382367599</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023743507290554</v>
+        <v>0.9817224194732761</v>
       </c>
       <c r="D10">
-        <v>1.029415645914166</v>
+        <v>1.003746396706944</v>
       </c>
       <c r="E10">
-        <v>1.024392749465418</v>
+        <v>0.991855061096259</v>
       </c>
       <c r="F10">
-        <v>1.020038966569256</v>
+        <v>0.9481715947281811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032523846072668</v>
+        <v>1.034860814637796</v>
       </c>
       <c r="J10">
-        <v>1.030161104586122</v>
+        <v>1.010680457909584</v>
       </c>
       <c r="K10">
-        <v>1.032884935747183</v>
+        <v>1.018048336666792</v>
       </c>
       <c r="L10">
-        <v>1.02788033852597</v>
+        <v>1.0063729488018</v>
       </c>
       <c r="M10">
-        <v>1.023542578400687</v>
+        <v>0.96354422775338</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023136543639724</v>
+        <v>0.9784074456330907</v>
       </c>
       <c r="D11">
-        <v>1.028959411754222</v>
+        <v>1.001339932494455</v>
       </c>
       <c r="E11">
-        <v>1.023879986478674</v>
+        <v>0.9892519240377273</v>
       </c>
       <c r="F11">
-        <v>1.01900842471415</v>
+        <v>0.9427200846861669</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032380883515426</v>
+        <v>1.033867959037907</v>
       </c>
       <c r="J11">
-        <v>1.029791321157447</v>
+        <v>1.008706930506218</v>
       </c>
       <c r="K11">
-        <v>1.032552813695864</v>
+        <v>1.01623662381358</v>
       </c>
       <c r="L11">
-        <v>1.027492610245735</v>
+        <v>1.004379420228102</v>
       </c>
       <c r="M11">
-        <v>1.022639683371035</v>
+        <v>0.9588095759422107</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022911105082051</v>
+        <v>0.9771599613068361</v>
       </c>
       <c r="D12">
-        <v>1.028789953083317</v>
+        <v>1.000435148810172</v>
       </c>
       <c r="E12">
-        <v>1.023689608743582</v>
+        <v>0.9882737214770697</v>
       </c>
       <c r="F12">
-        <v>1.018625616935724</v>
+        <v>0.9406623536817924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032327569209608</v>
+        <v>1.033492651448279</v>
       </c>
       <c r="J12">
-        <v>1.029653869660597</v>
+        <v>1.007963425145169</v>
       </c>
       <c r="K12">
-        <v>1.032429329474591</v>
+        <v>1.015554016801449</v>
       </c>
       <c r="L12">
-        <v>1.027348553616519</v>
+        <v>1.003629080317589</v>
       </c>
       <c r="M12">
-        <v>1.022304206083051</v>
+        <v>0.9570220675844169</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022959461750657</v>
+        <v>0.9774282986861933</v>
       </c>
       <c r="D13">
-        <v>1.028826302217151</v>
+        <v>1.000629732502735</v>
       </c>
       <c r="E13">
-        <v>1.02373044154724</v>
+        <v>0.9884840711672179</v>
       </c>
       <c r="F13">
-        <v>1.018707731440495</v>
+        <v>0.941105272713293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032339014885282</v>
+        <v>1.033573456458056</v>
       </c>
       <c r="J13">
-        <v>1.029683357884179</v>
+        <v>1.008123392738725</v>
       </c>
       <c r="K13">
-        <v>1.032455822655152</v>
+        <v>1.015700884371354</v>
       </c>
       <c r="L13">
-        <v>1.027379455927575</v>
+        <v>1.003790486447075</v>
       </c>
       <c r="M13">
-        <v>1.022376171789295</v>
+        <v>0.9574068374710203</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023117908517319</v>
+        <v>0.9783046637295908</v>
       </c>
       <c r="D14">
-        <v>1.028945404101343</v>
+        <v>1.001265369250735</v>
       </c>
       <c r="E14">
-        <v>1.023864248053298</v>
+        <v>0.9891712997320569</v>
       </c>
       <c r="F14">
-        <v>1.018976782117668</v>
+        <v>0.9425506770032185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032376480855313</v>
+        <v>1.03383707085413</v>
       </c>
       <c r="J14">
-        <v>1.029779961362254</v>
+        <v>1.008645688976342</v>
       </c>
       <c r="K14">
-        <v>1.032542608884354</v>
+        <v>1.016180399540096</v>
       </c>
       <c r="L14">
-        <v>1.027480703235221</v>
+        <v>1.0043176014105</v>
       </c>
       <c r="M14">
-        <v>1.022611954820461</v>
+        <v>0.958662421966925</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023215534754688</v>
+        <v>0.9788424496302149</v>
       </c>
       <c r="D15">
-        <v>1.029018787648911</v>
+        <v>1.001655540116873</v>
       </c>
       <c r="E15">
-        <v>1.023946701972058</v>
+        <v>0.9895932079851124</v>
       </c>
       <c r="F15">
-        <v>1.019142550475455</v>
+        <v>0.9434368102560124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032399536833285</v>
+        <v>1.033998618966333</v>
       </c>
       <c r="J15">
-        <v>1.029839469037496</v>
+        <v>1.008966089271828</v>
       </c>
       <c r="K15">
-        <v>1.032596064940849</v>
+        <v>1.016474548374804</v>
       </c>
       <c r="L15">
-        <v>1.027543080134836</v>
+        <v>1.004641050567973</v>
       </c>
       <c r="M15">
-        <v>1.02275721488114</v>
+        <v>0.9594321367360396</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023783791543231</v>
+        <v>0.9819402134930526</v>
       </c>
       <c r="D16">
-        <v>1.029445925624629</v>
+        <v>1.00390461027603</v>
       </c>
       <c r="E16">
-        <v>1.024426791785848</v>
+        <v>0.9920262787158182</v>
       </c>
       <c r="F16">
-        <v>1.020107357940374</v>
+        <v>0.948528942131557</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032533304341645</v>
+        <v>1.03492581116874</v>
       </c>
       <c r="J16">
-        <v>1.030185632227179</v>
+        <v>1.010810003416094</v>
       </c>
       <c r="K16">
-        <v>1.032906960853551</v>
+        <v>1.018167250233123</v>
       </c>
       <c r="L16">
-        <v>1.02790606556446</v>
+        <v>1.006503903197051</v>
       </c>
       <c r="M16">
-        <v>1.023602486554544</v>
+        <v>0.9638545311728055</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024140270392747</v>
+        <v>0.9838556498295329</v>
       </c>
       <c r="D17">
-        <v>1.029713869871128</v>
+        <v>1.005296623990527</v>
       </c>
       <c r="E17">
-        <v>1.02472809084307</v>
+        <v>0.9935331140033534</v>
       </c>
       <c r="F17">
-        <v>1.020712529163461</v>
+        <v>0.9516675196503116</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03261683591544</v>
+        <v>1.035496147601461</v>
       </c>
       <c r="J17">
-        <v>1.030402597583721</v>
+        <v>1.011948687327959</v>
       </c>
       <c r="K17">
-        <v>1.033101764853489</v>
+        <v>1.019212417205912</v>
       </c>
       <c r="L17">
-        <v>1.02813369045166</v>
+        <v>1.007655489286348</v>
       </c>
       <c r="M17">
-        <v>1.024132526908258</v>
+        <v>0.9665796066068341</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024348207999564</v>
+        <v>0.9849632153744309</v>
       </c>
       <c r="D18">
-        <v>1.029870161313785</v>
+        <v>1.006101994148272</v>
       </c>
       <c r="E18">
-        <v>1.024903887882821</v>
+        <v>0.9944052581932239</v>
       </c>
       <c r="F18">
-        <v>1.02106550742036</v>
+        <v>0.9534789812196588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032665422486093</v>
+        <v>1.03582485401787</v>
       </c>
       <c r="J18">
-        <v>1.030529087223868</v>
+        <v>1.012606582542337</v>
       </c>
       <c r="K18">
-        <v>1.033215313985754</v>
+        <v>1.019816223983707</v>
       </c>
       <c r="L18">
-        <v>1.028266436248843</v>
+        <v>1.008321268077472</v>
       </c>
       <c r="M18">
-        <v>1.024441628547573</v>
+        <v>0.9681521381021854</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024419110967212</v>
+        <v>0.9853392536899536</v>
       </c>
       <c r="D19">
-        <v>1.029923453334217</v>
+        <v>1.006375508439856</v>
       </c>
       <c r="E19">
-        <v>1.02496383934137</v>
+        <v>0.9947015083153339</v>
       </c>
       <c r="F19">
-        <v>1.021185862723212</v>
+        <v>0.9540934569295428</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03268196618339</v>
+        <v>1.035936271578429</v>
       </c>
       <c r="J19">
-        <v>1.030572206307935</v>
+        <v>1.012829860041567</v>
       </c>
       <c r="K19">
-        <v>1.033254018282684</v>
+        <v>1.020021134428392</v>
       </c>
       <c r="L19">
-        <v>1.028311695067336</v>
+        <v>1.008547293433335</v>
       </c>
       <c r="M19">
-        <v>1.024547013863559</v>
+        <v>0.968685516895703</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024102022600946</v>
+        <v>0.9836511492745066</v>
       </c>
       <c r="D20">
-        <v>1.0296851215613</v>
+        <v>1.005147957739191</v>
       </c>
       <c r="E20">
-        <v>1.024695758675335</v>
+        <v>0.9933721494594863</v>
       </c>
       <c r="F20">
-        <v>1.02064760087455</v>
+        <v>0.9513327854870615</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032607887832814</v>
+        <v>1.035435367796059</v>
       </c>
       <c r="J20">
-        <v>1.030379325727438</v>
+        <v>1.011827171053242</v>
       </c>
       <c r="K20">
-        <v>1.03308087216463</v>
+        <v>1.019100886505572</v>
       </c>
       <c r="L20">
-        <v>1.028109270931128</v>
+        <v>1.007532551475423</v>
       </c>
       <c r="M20">
-        <v>1.024075665035429</v>
+        <v>0.9662890010180262</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023071249486551</v>
+        <v>0.9780470503421264</v>
       </c>
       <c r="D21">
-        <v>1.02891033136692</v>
+        <v>1.001078496654735</v>
       </c>
       <c r="E21">
-        <v>1.023824843014373</v>
+        <v>0.9889692451510862</v>
       </c>
       <c r="F21">
-        <v>1.018897553960424</v>
+        <v>0.942125969005413</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032365453902756</v>
+        <v>1.033759625547043</v>
       </c>
       <c r="J21">
-        <v>1.029751516736468</v>
+        <v>1.008492179338017</v>
       </c>
       <c r="K21">
-        <v>1.032517055794896</v>
+        <v>1.016039465353613</v>
       </c>
       <c r="L21">
-        <v>1.027450889448804</v>
+        <v>1.004162656068936</v>
       </c>
       <c r="M21">
-        <v>1.022542525446318</v>
+        <v>0.9582934987884223</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022423246926217</v>
+        <v>0.9744295089939777</v>
       </c>
       <c r="D22">
-        <v>1.028423230855556</v>
+        <v>0.9984563607660316</v>
       </c>
       <c r="E22">
-        <v>1.023277757360961</v>
+        <v>0.9861353158816839</v>
       </c>
       <c r="F22">
-        <v>1.017797119237759</v>
+        <v>0.936146024523421</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032211801588057</v>
+        <v>1.03266813805636</v>
       </c>
       <c r="J22">
-        <v>1.029356224380942</v>
+        <v>1.006334538677671</v>
       </c>
       <c r="K22">
-        <v>1.032161871896425</v>
+        <v>1.01405845960011</v>
       </c>
       <c r="L22">
-        <v>1.027036724422622</v>
+        <v>1.001986530971138</v>
       </c>
       <c r="M22">
-        <v>1.021577987883888</v>
+        <v>0.9530982345211407</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022766757268667</v>
+        <v>0.9763564989114015</v>
       </c>
       <c r="D23">
-        <v>1.028681447993198</v>
+        <v>0.9998526459689424</v>
       </c>
       <c r="E23">
-        <v>1.023567730860868</v>
+        <v>0.987644097771765</v>
       </c>
       <c r="F23">
-        <v>1.018380492939019</v>
+        <v>0.9393351744046278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032293371625675</v>
+        <v>1.033250459608591</v>
       </c>
       <c r="J23">
-        <v>1.029565829798656</v>
+        <v>1.00748432462484</v>
       </c>
       <c r="K23">
-        <v>1.032350226962886</v>
+        <v>1.015114143343439</v>
       </c>
       <c r="L23">
-        <v>1.027256301405668</v>
+        <v>1.003145775512911</v>
       </c>
       <c r="M23">
-        <v>1.022089365244868</v>
+        <v>0.9558690807381228</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024119305102129</v>
+        <v>0.9837435841028064</v>
       </c>
       <c r="D24">
-        <v>1.029698111672382</v>
+        <v>1.005215153870477</v>
       </c>
       <c r="E24">
-        <v>1.024710368022109</v>
+        <v>0.9934449032725309</v>
       </c>
       <c r="F24">
-        <v>1.020676939196494</v>
+        <v>0.951484096644152</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032611931506309</v>
+        <v>1.035462843792034</v>
       </c>
       <c r="J24">
-        <v>1.030389841470825</v>
+        <v>1.011882098389513</v>
       </c>
       <c r="K24">
-        <v>1.033090312908472</v>
+        <v>1.019151300379257</v>
       </c>
       <c r="L24">
-        <v>1.028120305135259</v>
+        <v>1.007588120039089</v>
       </c>
       <c r="M24">
-        <v>1.024101358658349</v>
+        <v>0.966420365420513</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025689235302129</v>
+        <v>0.9919390903298501</v>
       </c>
       <c r="D25">
-        <v>1.030878051815847</v>
+        <v>1.011182155899945</v>
       </c>
       <c r="E25">
-        <v>1.026038466769391</v>
+        <v>0.9999128441537714</v>
       </c>
       <c r="F25">
-        <v>1.023341548515344</v>
+        <v>0.9648352802787553</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032976267809461</v>
+        <v>1.037875684072098</v>
       </c>
       <c r="J25">
-        <v>1.031343606153812</v>
+        <v>1.016740815213621</v>
       </c>
       <c r="K25">
-        <v>1.033946130151284</v>
+        <v>1.023609328370043</v>
       </c>
       <c r="L25">
-        <v>1.029121993134438</v>
+        <v>1.012512513255151</v>
       </c>
       <c r="M25">
-        <v>1.02643375289706</v>
+        <v>0.9780051682212864</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
